--- a/r5-ELGA-MOPED-194-MOPED-Profil-für-Condition-und-Procedure-erstellen/StructureDefinition-moped-ext-zugangsart.xlsx
+++ b/r5-ELGA-MOPED-194-MOPED-Profil-für-Condition-und-Procedure-erstellen/StructureDefinition-moped-ext-zugangsart.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-24T10:48:10+00:00</t>
+    <t>2024-10-24T11:49:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
